--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/42/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/42/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.9664966496649665</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1063.063063063063</v>
+        <v>444.5044504450445</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0998998998998999</v>
+        <v>0.00295029502950295</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.993993993993994</v>
+        <v>0.1016101610161016</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1229.229229229229</v>
+        <v>844.1144114411442</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>942.942942942943</v>
+        <v>551.3051305130514</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>900.900900900901</v>
+        <v>108.1035103510351</v>
       </c>
     </row>
   </sheetData>
